--- a/src/main/resources/FeatureFiles/Test.xlsx
+++ b/src/main/resources/FeatureFiles/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gurcharan/Desktop/CouchBase/src/main/resources/FeatureFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B966355-0AC4-7646-A52E-537CED68855C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04905782-2406-2A4B-891A-B297612E9EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="120">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -356,9 +356,6 @@
     <t>closeBrowser</t>
   </si>
   <si>
-    <t>https://www.couchbase.com/partners/partner-with-couchbase/</t>
-  </si>
-  <si>
     <t>BecomePartnerPage_BrandLogo_ImageLink</t>
   </si>
   <si>
@@ -369,6 +366,21 @@
   </si>
   <si>
     <t>BecomePartnerPage_Modal_BecomePartnerHeader</t>
+  </si>
+  <si>
+    <t>TC001</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>TC003</t>
+  </si>
+  <si>
+    <t>TC004</t>
+  </si>
+  <si>
+    <t>{BaseURL}+/partners/partner-with-couchbase/</t>
   </si>
 </sst>
 </file>
@@ -434,7 +446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -444,6 +456,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -749,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E698"/>
+  <dimension ref="A1:E697"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -799,8 +812,8 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>111</v>
+      <c r="D3" s="7" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -808,7 +821,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -816,7 +829,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -829,7 +842,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -837,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -845,677 +858,281 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="5"/>
+      <c r="C13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C16"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
+      <c r="C17"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C18"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="C19"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="B20"/>
+      <c r="C20"/>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="C21"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C22"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="C24"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C25"/>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>88</v>
-      </c>
+      <c r="B26"/>
+      <c r="C26"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="C27"/>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B28"/>
+      <c r="C28"/>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="C29"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>28</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C31"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C33"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34"/>
+      <c r="C34"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C35"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36"/>
+      <c r="C36"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C37"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C39"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C40"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C41" t="s">
-        <v>34</v>
-      </c>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B42" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" t="s">
-        <v>18</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B47" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>35</v>
-      </c>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C41"/>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B42"/>
+      <c r="C42"/>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C44"/>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B45"/>
+      <c r="C45"/>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C46"/>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B47"/>
+      <c r="C47"/>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C48"/>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="C49"/>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="C50"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="B51"/>
+      <c r="C51"/>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>10</v>
-      </c>
-      <c r="C52" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="C52"/>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" t="s">
-        <v>24</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>38</v>
-      </c>
+      <c r="C53"/>
+      <c r="D53" s="3"/>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" s="3"/>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>10</v>
-      </c>
-      <c r="C55" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>42</v>
-      </c>
+      <c r="C55"/>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>39</v>
-      </c>
+      <c r="C56"/>
+      <c r="D56"/>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B57" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-      <c r="D57" t="s">
-        <v>40</v>
-      </c>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58" t="s">
-        <v>26</v>
-      </c>
-      <c r="D58" t="s">
-        <v>40</v>
-      </c>
+      <c r="C58"/>
+      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>27</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="B59"/>
+      <c r="C59"/>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
-        <v>10</v>
-      </c>
-      <c r="C60" t="s">
-        <v>27</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="C60"/>
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62" t="s">
-        <v>28</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="C62"/>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B63"/>
+      <c r="C63"/>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="C64"/>
     </row>
     <row r="65" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>30</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="B65"/>
+      <c r="C65"/>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" t="s">
-        <v>30</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C66"/>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B67" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" t="s">
-        <v>31</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="B67"/>
+      <c r="C67"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>31</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="C68"/>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B69" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C69" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="B69"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C70"/>
+      <c r="D70" s="4"/>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B71" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71" t="s">
-        <v>33</v>
-      </c>
+      <c r="C71"/>
       <c r="D71" s="4"/>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C72" t="s">
-        <v>34</v>
-      </c>
-      <c r="D72" s="4"/>
+      <c r="C72"/>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B73" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C75"/>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B76"/>
+      <c r="C76"/>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C77"/>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B78"/>
+      <c r="C78"/>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B79"/>
       <c r="C79"/>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.2">
@@ -1523,85 +1140,85 @@
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C81"/>
-      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82"/>
       <c r="C82"/>
-      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C83"/>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C84"/>
+      <c r="D84" s="3"/>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85"/>
       <c r="C85"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C86"/>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B87"/>
       <c r="C87"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B88"/>
       <c r="C88"/>
-      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B89"/>
       <c r="C89"/>
-      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B90"/>
       <c r="C90"/>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B91"/>
       <c r="C91"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B92"/>
       <c r="C92"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B93"/>
       <c r="C93"/>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B94"/>
       <c r="C94"/>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B95"/>
       <c r="C95"/>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B96"/>
       <c r="C96"/>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B97"/>
-      <c r="D97" s="4"/>
+      <c r="C97"/>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B98"/>
       <c r="C98"/>
-      <c r="D98" s="4"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C99"/>
-      <c r="D99" s="4"/>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C100"/>
+      <c r="B100"/>
+      <c r="D100" s="4"/>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B101"/>
       <c r="C101"/>
+      <c r="D101" s="4"/>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B102"/>
       <c r="C102"/>
+      <c r="D102" s="4"/>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C103"/>
@@ -1611,13 +1228,13 @@
       <c r="C104"/>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C105"/>
+      <c r="D105"/>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B106"/>
       <c r="C106"/>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B107"/>
       <c r="C107"/>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.2">
@@ -1632,41 +1249,41 @@
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C111"/>
-      <c r="D111" s="3"/>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B112"/>
       <c r="C112"/>
-      <c r="D112" s="3"/>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B113"/>
       <c r="C113"/>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C114"/>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B115"/>
       <c r="C115"/>
+      <c r="D115" s="3"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B116"/>
       <c r="C116"/>
+      <c r="D116" s="3"/>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B117"/>
       <c r="C117"/>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C118"/>
-      <c r="D118" s="3"/>
+      <c r="D118"/>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119"/>
       <c r="C119"/>
-      <c r="D119" s="3"/>
+      <c r="D119"/>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C120"/>
+      <c r="D120" s="3"/>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121"/>
@@ -1674,10 +1291,12 @@
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C122"/>
+      <c r="D122" s="3"/>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123"/>
       <c r="C123"/>
+      <c r="D123" s="3"/>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C124"/>
@@ -1691,57 +1310,56 @@
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127"/>
-      <c r="D127" s="4"/>
+      <c r="C127"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C128"/>
-      <c r="D128" s="4"/>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B129"/>
       <c r="C129"/>
-      <c r="D129" s="4"/>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C130"/>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B131"/>
-      <c r="C131"/>
+      <c r="D131" s="4"/>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D132"/>
+      <c r="C132"/>
+      <c r="D132" s="4"/>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C133"/>
+      <c r="D133" s="4"/>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B134"/>
       <c r="C134"/>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B135"/>
       <c r="C135"/>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B136"/>
       <c r="C136"/>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C137"/>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B138"/>
       <c r="C138"/>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C139"/>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B140"/>
       <c r="C140"/>
-      <c r="D140" s="3"/>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B141"/>
       <c r="C141"/>
-      <c r="D141" s="3"/>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C142"/>
@@ -1757,20 +1375,20 @@
       <c r="C145"/>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B146"/>
       <c r="C146"/>
+      <c r="D146" s="3"/>
     </row>
     <row r="147" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B147"/>
       <c r="C147"/>
       <c r="D147" s="3"/>
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B148"/>
       <c r="C148"/>
-      <c r="D148" s="3"/>
     </row>
     <row r="149" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C149"/>
+      <c r="D149" s="3"/>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B150"/>
@@ -1785,25 +1403,26 @@
     </row>
     <row r="153" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C153"/>
+      <c r="D153" s="3"/>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B154"/>
       <c r="C154"/>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C155"/>
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B156"/>
-      <c r="D156" s="4"/>
+      <c r="C156"/>
     </row>
     <row r="157" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C157"/>
-      <c r="D157" s="4"/>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B158"/>
       <c r="C158"/>
-      <c r="D158" s="4"/>
     </row>
     <row r="159" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C159"/>
@@ -1812,25 +1431,30 @@
       <c r="B160"/>
       <c r="C160"/>
     </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C161"/>
+    </row>
     <row r="162" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C162"/>
+      <c r="B162"/>
+      <c r="D162" s="4"/>
     </row>
     <row r="163" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B163"/>
       <c r="C163"/>
+      <c r="D163" s="4"/>
     </row>
     <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C164"/>
+      <c r="D164" s="4"/>
     </row>
     <row r="165" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B165"/>
       <c r="C165"/>
     </row>
     <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B166"/>
       <c r="C166"/>
     </row>
     <row r="167" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C167"/>
+      <c r="D167"/>
     </row>
     <row r="168" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C168"/>
@@ -1841,12 +1465,10 @@
     </row>
     <row r="170" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C170"/>
-      <c r="D170" s="3"/>
     </row>
     <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171"/>
       <c r="C171"/>
-      <c r="D171" s="3"/>
     </row>
     <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C172"/>
@@ -1855,14 +1477,13 @@
       <c r="C173"/>
     </row>
     <row r="174" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B174"/>
       <c r="C174"/>
     </row>
     <row r="175" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B175"/>
       <c r="C175"/>
     </row>
     <row r="176" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B176"/>
       <c r="C176"/>
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.2">
@@ -1878,73 +1499,79 @@
       <c r="C179"/>
     </row>
     <row r="180" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B180"/>
       <c r="C180"/>
+      <c r="D180"/>
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B181"/>
       <c r="C181"/>
+      <c r="D181"/>
     </row>
     <row r="182" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B182"/>
       <c r="C182"/>
+      <c r="D182" s="3"/>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B183"/>
       <c r="C183"/>
     </row>
     <row r="184" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B184"/>
       <c r="C184"/>
+      <c r="D184" s="3"/>
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B185"/>
       <c r="C185"/>
+      <c r="D185" s="3"/>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B186"/>
-      <c r="D186" s="4"/>
+      <c r="C186"/>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B187"/>
       <c r="C187"/>
-      <c r="D187" s="4"/>
     </row>
     <row r="188" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C188"/>
-      <c r="D188" s="4"/>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B189"/>
       <c r="C189"/>
     </row>
     <row r="190" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B190"/>
       <c r="C190"/>
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D191"/>
+      <c r="B191"/>
+      <c r="C191"/>
     </row>
     <row r="192" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C192"/>
     </row>
     <row r="193" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B193"/>
-      <c r="C193"/>
+      <c r="D193" s="4"/>
     </row>
     <row r="194" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C194"/>
+      <c r="D194" s="4"/>
     </row>
     <row r="195" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B195"/>
       <c r="C195"/>
+      <c r="D195" s="4"/>
     </row>
     <row r="196" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C196"/>
     </row>
     <row r="197" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B197"/>
       <c r="C197"/>
     </row>
     <row r="198" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B198"/>
       <c r="C198"/>
     </row>
     <row r="199" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B199"/>
       <c r="C199"/>
     </row>
     <row r="200" spans="2:4" x14ac:dyDescent="0.2">
@@ -1954,54 +1581,55 @@
       <c r="C201"/>
     </row>
     <row r="202" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B202"/>
       <c r="C202"/>
     </row>
     <row r="203" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B203"/>
       <c r="C203"/>
     </row>
     <row r="204" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B204"/>
       <c r="C204"/>
     </row>
     <row r="205" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B205"/>
       <c r="C205"/>
+      <c r="D205" s="3"/>
     </row>
     <row r="206" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B206"/>
       <c r="C206"/>
       <c r="D206" s="3"/>
     </row>
     <row r="207" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B207"/>
       <c r="C207"/>
-      <c r="D207" s="3"/>
     </row>
     <row r="208" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B208"/>
       <c r="C208"/>
     </row>
     <row r="209" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B209"/>
       <c r="C209"/>
     </row>
     <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B210"/>
       <c r="C210"/>
     </row>
     <row r="211" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B211"/>
       <c r="C211"/>
     </row>
     <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B212"/>
       <c r="C212"/>
     </row>
     <row r="213" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B213"/>
       <c r="C213"/>
     </row>
     <row r="214" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C214"/>
+      <c r="B214"/>
+      <c r="D214" s="4"/>
     </row>
     <row r="215" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B215"/>
+      <c r="C215"/>
       <c r="D215" s="4"/>
     </row>
     <row r="216" spans="2:4" x14ac:dyDescent="0.2">
@@ -2010,27 +1638,26 @@
     </row>
     <row r="217" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C217"/>
-      <c r="D217" s="4"/>
     </row>
     <row r="218" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B218"/>
       <c r="C218"/>
     </row>
-    <row r="219" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B219"/>
-      <c r="C219"/>
+    <row r="220" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C220"/>
     </row>
     <row r="221" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B221"/>
       <c r="C221"/>
     </row>
     <row r="222" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B222"/>
       <c r="C222"/>
     </row>
     <row r="223" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B223"/>
       <c r="C223"/>
     </row>
     <row r="224" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B224"/>
       <c r="C224"/>
     </row>
     <row r="225" spans="2:4" x14ac:dyDescent="0.2">
@@ -2040,73 +1667,74 @@
       <c r="C226"/>
     </row>
     <row r="227" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B227"/>
       <c r="C227"/>
     </row>
     <row r="228" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B228"/>
       <c r="C228"/>
     </row>
     <row r="229" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C229"/>
+      <c r="D229" s="3"/>
     </row>
     <row r="230" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B230"/>
       <c r="C230"/>
       <c r="D230" s="3"/>
     </row>
     <row r="231" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B231"/>
       <c r="C231"/>
-      <c r="D231" s="3"/>
     </row>
     <row r="232" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B232"/>
       <c r="C232"/>
     </row>
     <row r="233" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B233"/>
       <c r="C233"/>
     </row>
     <row r="234" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B234"/>
       <c r="C234"/>
     </row>
     <row r="235" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B235"/>
       <c r="C235"/>
+      <c r="D235" s="3"/>
     </row>
     <row r="236" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B236"/>
       <c r="C236"/>
       <c r="D236" s="3"/>
     </row>
     <row r="237" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B237"/>
       <c r="C237"/>
-      <c r="D237" s="3"/>
     </row>
     <row r="238" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B238"/>
       <c r="C238"/>
     </row>
     <row r="239" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B239"/>
       <c r="C239"/>
     </row>
     <row r="240" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B240"/>
       <c r="C240"/>
     </row>
     <row r="241" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B241"/>
       <c r="C241"/>
     </row>
     <row r="242" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B242"/>
       <c r="C242"/>
     </row>
     <row r="243" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B243"/>
       <c r="C243"/>
     </row>
     <row r="244" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C244"/>
+      <c r="B244"/>
+      <c r="D244" s="4"/>
     </row>
     <row r="245" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B245"/>
+      <c r="C245"/>
       <c r="D245" s="4"/>
     </row>
     <row r="246" spans="2:4" x14ac:dyDescent="0.2">
@@ -2115,30 +1743,29 @@
     </row>
     <row r="247" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C247"/>
-      <c r="D247" s="4"/>
     </row>
     <row r="248" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B248"/>
       <c r="C248"/>
     </row>
     <row r="249" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B249"/>
-      <c r="C249"/>
+      <c r="D249"/>
     </row>
     <row r="250" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D250"/>
+      <c r="C250"/>
     </row>
     <row r="251" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B251"/>
       <c r="C251"/>
     </row>
     <row r="252" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B252"/>
       <c r="C252"/>
     </row>
     <row r="253" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B253"/>
       <c r="C253"/>
     </row>
     <row r="254" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B254"/>
       <c r="C254"/>
     </row>
     <row r="255" spans="2:4" x14ac:dyDescent="0.2">
@@ -2148,69 +1775,70 @@
       <c r="C256"/>
     </row>
     <row r="257" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B257"/>
       <c r="C257"/>
     </row>
     <row r="258" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B258"/>
       <c r="C258"/>
     </row>
     <row r="259" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C259"/>
+      <c r="D259" s="3"/>
     </row>
     <row r="260" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B260"/>
       <c r="C260"/>
       <c r="D260" s="3"/>
     </row>
     <row r="261" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B261"/>
       <c r="C261"/>
-      <c r="D261" s="3"/>
     </row>
     <row r="262" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C262"/>
     </row>
     <row r="263" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B263"/>
       <c r="C263"/>
     </row>
     <row r="264" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B264"/>
       <c r="C264"/>
+      <c r="D264" s="3"/>
     </row>
     <row r="265" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B265"/>
       <c r="C265"/>
       <c r="D265" s="3"/>
     </row>
     <row r="266" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B266"/>
       <c r="C266"/>
-      <c r="D266" s="3"/>
     </row>
     <row r="267" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B267"/>
       <c r="C267"/>
     </row>
     <row r="268" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B268"/>
       <c r="C268"/>
     </row>
     <row r="269" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B269"/>
       <c r="C269"/>
     </row>
     <row r="270" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B270"/>
       <c r="C270"/>
     </row>
     <row r="271" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B271"/>
       <c r="C271"/>
     </row>
     <row r="272" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B272"/>
       <c r="C272"/>
     </row>
     <row r="273" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C273"/>
+      <c r="B273"/>
+      <c r="D273" s="4"/>
     </row>
     <row r="274" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B274"/>
+      <c r="C274"/>
       <c r="D274" s="4"/>
     </row>
     <row r="275" spans="2:4" x14ac:dyDescent="0.2">
@@ -2219,27 +1847,26 @@
     </row>
     <row r="276" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C276"/>
-      <c r="D276" s="4"/>
     </row>
     <row r="277" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B277"/>
       <c r="C277"/>
     </row>
-    <row r="278" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B278"/>
-      <c r="C278"/>
+    <row r="279" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C279"/>
     </row>
     <row r="280" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B280"/>
       <c r="C280"/>
     </row>
     <row r="281" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B281"/>
       <c r="C281"/>
     </row>
     <row r="282" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B282"/>
       <c r="C282"/>
     </row>
     <row r="283" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B283"/>
       <c r="C283"/>
     </row>
     <row r="284" spans="2:4" x14ac:dyDescent="0.2">
@@ -2249,69 +1876,70 @@
       <c r="C285"/>
     </row>
     <row r="286" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B286"/>
       <c r="C286"/>
     </row>
     <row r="287" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B287"/>
       <c r="C287"/>
     </row>
     <row r="288" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C288"/>
+      <c r="D288" s="3"/>
     </row>
     <row r="289" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B289"/>
       <c r="C289"/>
       <c r="D289" s="3"/>
     </row>
     <row r="290" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B290"/>
       <c r="C290"/>
-      <c r="D290" s="3"/>
     </row>
     <row r="291" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C291"/>
     </row>
     <row r="292" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B292"/>
       <c r="C292"/>
     </row>
     <row r="293" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B293"/>
       <c r="C293"/>
+      <c r="D293" s="3"/>
     </row>
     <row r="294" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B294"/>
       <c r="C294"/>
       <c r="D294" s="3"/>
     </row>
     <row r="295" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B295"/>
       <c r="C295"/>
-      <c r="D295" s="3"/>
     </row>
     <row r="296" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B296"/>
       <c r="C296"/>
     </row>
     <row r="297" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B297"/>
       <c r="C297"/>
     </row>
     <row r="298" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B298"/>
       <c r="C298"/>
     </row>
     <row r="299" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B299"/>
       <c r="C299"/>
     </row>
     <row r="300" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B300"/>
       <c r="C300"/>
     </row>
     <row r="301" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B301"/>
       <c r="C301"/>
     </row>
     <row r="302" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C302"/>
+      <c r="B302"/>
+      <c r="D302" s="4"/>
     </row>
     <row r="303" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B303"/>
+      <c r="C303"/>
       <c r="D303" s="4"/>
     </row>
     <row r="304" spans="2:4" x14ac:dyDescent="0.2">
@@ -2320,30 +1948,29 @@
     </row>
     <row r="305" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C305"/>
-      <c r="D305" s="4"/>
     </row>
     <row r="306" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B306"/>
       <c r="C306"/>
     </row>
     <row r="307" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B307"/>
-      <c r="C307"/>
+      <c r="D307"/>
     </row>
     <row r="308" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D308"/>
+      <c r="C308"/>
     </row>
     <row r="309" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B309"/>
       <c r="C309"/>
     </row>
     <row r="310" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B310"/>
       <c r="C310"/>
     </row>
     <row r="311" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B311"/>
       <c r="C311"/>
     </row>
     <row r="312" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B312"/>
       <c r="C312"/>
     </row>
     <row r="313" spans="2:4" x14ac:dyDescent="0.2">
@@ -2353,67 +1980,68 @@
       <c r="C314"/>
     </row>
     <row r="315" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B315"/>
       <c r="C315"/>
     </row>
     <row r="316" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B316"/>
       <c r="C316"/>
     </row>
     <row r="317" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C317"/>
+      <c r="D317" s="3"/>
     </row>
     <row r="318" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B318"/>
       <c r="C318"/>
       <c r="D318" s="3"/>
     </row>
     <row r="319" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B319"/>
       <c r="C319"/>
-      <c r="D319" s="3"/>
     </row>
     <row r="320" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C320"/>
     </row>
     <row r="321" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B321"/>
       <c r="C321"/>
     </row>
     <row r="322" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B322"/>
       <c r="C322"/>
     </row>
     <row r="323" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B323"/>
       <c r="C323"/>
     </row>
     <row r="324" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B324"/>
       <c r="C324"/>
     </row>
     <row r="325" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B325"/>
       <c r="C325"/>
     </row>
     <row r="326" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B326"/>
       <c r="C326"/>
     </row>
     <row r="327" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B327"/>
       <c r="C327"/>
     </row>
     <row r="328" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B328"/>
       <c r="C328"/>
     </row>
     <row r="329" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B329"/>
       <c r="C329"/>
     </row>
     <row r="330" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B330"/>
       <c r="C330"/>
     </row>
     <row r="331" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C331"/>
+      <c r="B331"/>
+      <c r="D331" s="4"/>
     </row>
     <row r="332" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B332"/>
+      <c r="C332"/>
       <c r="D332" s="4"/>
     </row>
     <row r="333" spans="2:4" x14ac:dyDescent="0.2">
@@ -2422,27 +2050,26 @@
     </row>
     <row r="334" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C334"/>
-      <c r="D334" s="4"/>
     </row>
     <row r="335" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B335"/>
       <c r="C335"/>
     </row>
-    <row r="336" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B336"/>
-      <c r="C336"/>
+    <row r="337" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C337"/>
     </row>
     <row r="338" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B338"/>
       <c r="C338"/>
     </row>
     <row r="339" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B339"/>
       <c r="C339"/>
     </row>
     <row r="340" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B340"/>
       <c r="C340"/>
     </row>
     <row r="341" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B341"/>
       <c r="C341"/>
     </row>
     <row r="342" spans="2:4" x14ac:dyDescent="0.2">
@@ -2452,69 +2079,70 @@
       <c r="C343"/>
     </row>
     <row r="344" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B344"/>
       <c r="C344"/>
     </row>
     <row r="345" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B345"/>
       <c r="C345"/>
     </row>
     <row r="346" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C346"/>
+      <c r="D346" s="3"/>
     </row>
     <row r="347" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B347"/>
       <c r="C347"/>
       <c r="D347" s="3"/>
     </row>
     <row r="348" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B348"/>
       <c r="C348"/>
-      <c r="D348" s="3"/>
     </row>
     <row r="349" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C349"/>
     </row>
     <row r="350" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B350"/>
       <c r="C350"/>
     </row>
     <row r="351" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B351"/>
       <c r="C351"/>
     </row>
     <row r="352" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B352"/>
       <c r="C352"/>
     </row>
     <row r="353" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B353"/>
       <c r="C353"/>
+      <c r="D353" s="3"/>
     </row>
     <row r="354" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B354"/>
       <c r="C354"/>
       <c r="D354" s="3"/>
     </row>
     <row r="355" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B355"/>
       <c r="C355"/>
-      <c r="D355" s="3"/>
     </row>
     <row r="356" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B356"/>
       <c r="C356"/>
     </row>
     <row r="357" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B357"/>
       <c r="C357"/>
     </row>
     <row r="358" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B358"/>
       <c r="C358"/>
     </row>
     <row r="359" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B359"/>
       <c r="C359"/>
     </row>
     <row r="360" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C360"/>
+      <c r="B360"/>
+      <c r="D360" s="4"/>
     </row>
     <row r="361" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B361"/>
+      <c r="C361"/>
       <c r="D361" s="4"/>
     </row>
     <row r="362" spans="2:4" x14ac:dyDescent="0.2">
@@ -2523,27 +2151,26 @@
     </row>
     <row r="363" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C363"/>
-      <c r="D363" s="4"/>
     </row>
     <row r="364" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B364"/>
       <c r="C364"/>
     </row>
-    <row r="365" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B365"/>
-      <c r="C365"/>
+    <row r="366" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C366"/>
     </row>
     <row r="367" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B367"/>
       <c r="C367"/>
     </row>
     <row r="368" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B368"/>
       <c r="C368"/>
     </row>
     <row r="369" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B369"/>
       <c r="C369"/>
     </row>
     <row r="370" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B370"/>
       <c r="C370"/>
     </row>
     <row r="371" spans="2:4" x14ac:dyDescent="0.2">
@@ -2553,69 +2180,70 @@
       <c r="C372"/>
     </row>
     <row r="373" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B373"/>
       <c r="C373"/>
     </row>
     <row r="374" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B374"/>
       <c r="C374"/>
     </row>
     <row r="375" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C375"/>
+      <c r="D375" s="3"/>
     </row>
     <row r="376" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B376"/>
       <c r="C376"/>
       <c r="D376" s="3"/>
     </row>
     <row r="377" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B377"/>
       <c r="C377"/>
-      <c r="D377" s="3"/>
     </row>
     <row r="378" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C378"/>
     </row>
     <row r="379" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B379"/>
       <c r="C379"/>
     </row>
     <row r="380" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B380"/>
       <c r="C380"/>
     </row>
     <row r="381" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B381"/>
       <c r="C381"/>
     </row>
     <row r="382" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B382"/>
       <c r="C382"/>
+      <c r="D382" s="3"/>
     </row>
     <row r="383" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B383"/>
       <c r="C383"/>
       <c r="D383" s="3"/>
     </row>
     <row r="384" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B384"/>
       <c r="C384"/>
-      <c r="D384" s="3"/>
     </row>
     <row r="385" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B385"/>
       <c r="C385"/>
     </row>
     <row r="386" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B386"/>
       <c r="C386"/>
     </row>
     <row r="387" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B387"/>
       <c r="C387"/>
     </row>
     <row r="388" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B388"/>
       <c r="C388"/>
     </row>
     <row r="389" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C389"/>
+      <c r="B389"/>
+      <c r="D389" s="4"/>
     </row>
     <row r="390" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B390"/>
+      <c r="C390"/>
       <c r="D390" s="4"/>
     </row>
     <row r="391" spans="2:4" x14ac:dyDescent="0.2">
@@ -2624,27 +2252,26 @@
     </row>
     <row r="392" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C392"/>
-      <c r="D392" s="4"/>
     </row>
     <row r="393" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B393"/>
       <c r="C393"/>
     </row>
-    <row r="394" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B394"/>
-      <c r="C394"/>
+    <row r="395" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C395"/>
     </row>
     <row r="396" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B396"/>
       <c r="C396"/>
     </row>
     <row r="397" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B397"/>
       <c r="C397"/>
     </row>
     <row r="398" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B398"/>
       <c r="C398"/>
     </row>
     <row r="399" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B399"/>
       <c r="C399"/>
     </row>
     <row r="400" spans="2:4" x14ac:dyDescent="0.2">
@@ -2654,69 +2281,70 @@
       <c r="C401"/>
     </row>
     <row r="402" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B402"/>
       <c r="C402"/>
     </row>
     <row r="403" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B403"/>
       <c r="C403"/>
     </row>
     <row r="404" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C404"/>
+      <c r="D404" s="3"/>
     </row>
     <row r="405" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B405"/>
       <c r="C405"/>
       <c r="D405" s="3"/>
     </row>
     <row r="406" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B406"/>
       <c r="C406"/>
-      <c r="D406" s="3"/>
     </row>
     <row r="407" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C407"/>
     </row>
     <row r="408" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B408"/>
       <c r="C408"/>
     </row>
     <row r="409" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B409"/>
       <c r="C409"/>
     </row>
     <row r="410" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B410"/>
       <c r="C410"/>
     </row>
     <row r="411" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B411"/>
       <c r="C411"/>
+      <c r="D411" s="3"/>
     </row>
     <row r="412" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B412"/>
       <c r="C412"/>
       <c r="D412" s="3"/>
     </row>
     <row r="413" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B413"/>
       <c r="C413"/>
-      <c r="D413" s="3"/>
     </row>
     <row r="414" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B414"/>
       <c r="C414"/>
     </row>
     <row r="415" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B415"/>
       <c r="C415"/>
     </row>
     <row r="416" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B416"/>
       <c r="C416"/>
     </row>
     <row r="417" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B417"/>
       <c r="C417"/>
     </row>
     <row r="418" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C418"/>
+      <c r="B418"/>
+      <c r="D418" s="4"/>
     </row>
     <row r="419" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B419"/>
+      <c r="C419"/>
       <c r="D419" s="4"/>
     </row>
     <row r="420" spans="2:4" x14ac:dyDescent="0.2">
@@ -2725,30 +2353,29 @@
     </row>
     <row r="421" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C421"/>
-      <c r="D421" s="4"/>
     </row>
     <row r="422" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B422"/>
       <c r="C422"/>
     </row>
     <row r="423" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B423"/>
-      <c r="C423"/>
+      <c r="D423"/>
     </row>
     <row r="424" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D424"/>
+      <c r="C424"/>
     </row>
     <row r="425" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B425"/>
       <c r="C425"/>
     </row>
     <row r="426" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B426"/>
       <c r="C426"/>
     </row>
     <row r="427" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B427"/>
       <c r="C427"/>
     </row>
     <row r="428" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B428"/>
       <c r="C428"/>
     </row>
     <row r="429" spans="2:4" x14ac:dyDescent="0.2">
@@ -2758,76 +2385,77 @@
       <c r="C430"/>
     </row>
     <row r="431" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B431"/>
       <c r="C431"/>
     </row>
     <row r="432" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B432"/>
       <c r="C432"/>
     </row>
     <row r="433" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C433"/>
+      <c r="D433" s="3"/>
     </row>
     <row r="434" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B434"/>
       <c r="C434"/>
       <c r="D434" s="3"/>
     </row>
     <row r="435" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B435"/>
       <c r="C435"/>
-      <c r="D435" s="3"/>
     </row>
     <row r="436" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C436"/>
     </row>
     <row r="437" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B437"/>
       <c r="C437"/>
     </row>
     <row r="438" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B438"/>
       <c r="C438"/>
     </row>
     <row r="439" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B439"/>
       <c r="C439"/>
     </row>
     <row r="440" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B440"/>
       <c r="C440"/>
+      <c r="D440" s="3"/>
     </row>
     <row r="441" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B441"/>
       <c r="C441"/>
       <c r="D441" s="3"/>
     </row>
     <row r="442" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B442"/>
       <c r="C442"/>
-      <c r="D442" s="3"/>
     </row>
     <row r="443" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B443"/>
       <c r="C443"/>
     </row>
     <row r="444" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B444"/>
       <c r="C444"/>
     </row>
     <row r="445" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B445"/>
       <c r="C445"/>
     </row>
     <row r="446" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B446"/>
       <c r="C446"/>
     </row>
     <row r="447" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B447"/>
       <c r="C447"/>
     </row>
     <row r="448" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B448"/>
       <c r="C448"/>
     </row>
     <row r="449" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C449"/>
+      <c r="B449"/>
+      <c r="D449" s="4"/>
     </row>
     <row r="450" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B450"/>
+      <c r="C450"/>
       <c r="D450" s="4"/>
     </row>
     <row r="451" spans="2:4" x14ac:dyDescent="0.2">
@@ -2836,27 +2464,26 @@
     </row>
     <row r="452" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C452"/>
-      <c r="D452" s="4"/>
     </row>
     <row r="453" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B453"/>
       <c r="C453"/>
     </row>
-    <row r="454" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B454"/>
-      <c r="C454"/>
+    <row r="455" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C455"/>
     </row>
     <row r="456" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B456"/>
       <c r="C456"/>
     </row>
     <row r="457" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B457"/>
       <c r="C457"/>
     </row>
     <row r="458" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B458"/>
       <c r="C458"/>
     </row>
     <row r="459" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B459"/>
       <c r="C459"/>
     </row>
     <row r="460" spans="2:4" x14ac:dyDescent="0.2">
@@ -2866,76 +2493,77 @@
       <c r="C461"/>
     </row>
     <row r="462" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B462"/>
       <c r="C462"/>
     </row>
     <row r="463" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B463"/>
       <c r="C463"/>
     </row>
     <row r="464" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C464"/>
+      <c r="D464" s="3"/>
     </row>
     <row r="465" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B465"/>
       <c r="C465"/>
       <c r="D465" s="3"/>
     </row>
     <row r="466" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B466"/>
       <c r="C466"/>
-      <c r="D466" s="3"/>
     </row>
     <row r="467" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C467"/>
     </row>
     <row r="468" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B468"/>
       <c r="C468"/>
     </row>
     <row r="469" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B469"/>
       <c r="C469"/>
     </row>
     <row r="470" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B470"/>
       <c r="C470"/>
     </row>
     <row r="471" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B471"/>
       <c r="C471"/>
+      <c r="D471" s="3"/>
     </row>
     <row r="472" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B472"/>
       <c r="C472"/>
       <c r="D472" s="3"/>
     </row>
     <row r="473" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B473"/>
       <c r="C473"/>
-      <c r="D473" s="3"/>
     </row>
     <row r="474" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B474"/>
       <c r="C474"/>
     </row>
     <row r="475" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B475"/>
       <c r="C475"/>
     </row>
     <row r="476" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B476"/>
       <c r="C476"/>
     </row>
     <row r="477" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B477"/>
       <c r="C477"/>
     </row>
     <row r="478" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B478"/>
       <c r="C478"/>
     </row>
     <row r="479" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B479"/>
       <c r="C479"/>
     </row>
     <row r="480" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C480"/>
+      <c r="B480"/>
+      <c r="D480" s="4"/>
     </row>
     <row r="481" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B481"/>
+      <c r="C481"/>
       <c r="D481" s="4"/>
     </row>
     <row r="482" spans="2:4" x14ac:dyDescent="0.2">
@@ -2944,27 +2572,26 @@
     </row>
     <row r="483" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C483"/>
-      <c r="D483" s="4"/>
     </row>
     <row r="484" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B484"/>
       <c r="C484"/>
     </row>
-    <row r="485" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B485"/>
-      <c r="C485"/>
+    <row r="486" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C486"/>
     </row>
     <row r="487" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B487"/>
       <c r="C487"/>
     </row>
     <row r="488" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B488"/>
       <c r="C488"/>
     </row>
     <row r="489" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B489"/>
       <c r="C489"/>
     </row>
     <row r="490" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B490"/>
       <c r="C490"/>
     </row>
     <row r="491" spans="2:4" x14ac:dyDescent="0.2">
@@ -2974,77 +2601,78 @@
       <c r="C492"/>
     </row>
     <row r="493" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B493"/>
       <c r="C493"/>
     </row>
     <row r="494" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B494"/>
       <c r="C494"/>
     </row>
     <row r="495" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C495"/>
+      <c r="D495" s="3"/>
     </row>
     <row r="496" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B496"/>
       <c r="C496"/>
       <c r="D496" s="3"/>
     </row>
     <row r="497" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B497"/>
       <c r="C497"/>
-      <c r="D497" s="3"/>
     </row>
     <row r="498" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C498"/>
+      <c r="D498" s="3"/>
     </row>
     <row r="499" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B499"/>
       <c r="C499"/>
-      <c r="D499" s="3"/>
     </row>
     <row r="500" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B500"/>
       <c r="C500"/>
     </row>
     <row r="501" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B501"/>
       <c r="C501"/>
     </row>
     <row r="502" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B502"/>
       <c r="C502"/>
+      <c r="D502" s="3"/>
     </row>
     <row r="503" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B503"/>
       <c r="C503"/>
       <c r="D503" s="3"/>
     </row>
     <row r="504" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B504"/>
       <c r="C504"/>
-      <c r="D504" s="3"/>
     </row>
     <row r="505" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B505"/>
       <c r="C505"/>
     </row>
     <row r="506" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B506"/>
       <c r="C506"/>
     </row>
     <row r="507" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B507"/>
       <c r="C507"/>
     </row>
     <row r="508" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B508"/>
       <c r="C508"/>
     </row>
     <row r="509" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B509"/>
       <c r="C509"/>
     </row>
     <row r="510" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B510"/>
       <c r="C510"/>
     </row>
     <row r="511" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C511"/>
+      <c r="B511"/>
+      <c r="D511" s="4"/>
     </row>
     <row r="512" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B512"/>
+      <c r="C512"/>
       <c r="D512" s="4"/>
     </row>
     <row r="513" spans="2:4" x14ac:dyDescent="0.2">
@@ -3053,30 +2681,29 @@
     </row>
     <row r="514" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C514"/>
-      <c r="D514" s="4"/>
     </row>
     <row r="515" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B515"/>
       <c r="C515"/>
     </row>
     <row r="516" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B516"/>
-      <c r="C516"/>
+      <c r="D516"/>
     </row>
     <row r="517" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D517"/>
+      <c r="C517"/>
     </row>
     <row r="518" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B518"/>
       <c r="C518"/>
     </row>
     <row r="519" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B519"/>
       <c r="C519"/>
     </row>
     <row r="520" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B520"/>
       <c r="C520"/>
     </row>
     <row r="521" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B521"/>
       <c r="C521"/>
     </row>
     <row r="522" spans="2:4" x14ac:dyDescent="0.2">
@@ -3086,79 +2713,80 @@
       <c r="C523"/>
     </row>
     <row r="524" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B524"/>
       <c r="C524"/>
     </row>
     <row r="525" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B525"/>
       <c r="C525"/>
     </row>
     <row r="526" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C526"/>
+      <c r="D526" s="3"/>
     </row>
     <row r="527" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B527"/>
       <c r="C527"/>
       <c r="D527" s="3"/>
     </row>
     <row r="528" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B528"/>
       <c r="C528"/>
-      <c r="D528" s="3"/>
     </row>
     <row r="529" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C529"/>
+      <c r="D529"/>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B530"/>
       <c r="C530"/>
       <c r="D530"/>
     </row>
     <row r="531" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B531"/>
       <c r="C531"/>
-      <c r="D531"/>
+      <c r="D531" s="3"/>
     </row>
     <row r="532" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B532"/>
       <c r="C532"/>
-      <c r="D532" s="3"/>
     </row>
     <row r="533" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B533"/>
       <c r="C533"/>
+      <c r="D533" s="3"/>
     </row>
     <row r="534" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B534"/>
       <c r="C534"/>
       <c r="D534" s="3"/>
     </row>
     <row r="535" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B535"/>
       <c r="C535"/>
-      <c r="D535" s="3"/>
     </row>
     <row r="536" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B536"/>
       <c r="C536"/>
     </row>
     <row r="537" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B537"/>
       <c r="C537"/>
     </row>
     <row r="538" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B538"/>
       <c r="C538"/>
     </row>
     <row r="539" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B539"/>
       <c r="C539"/>
     </row>
     <row r="540" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B540"/>
       <c r="C540"/>
     </row>
     <row r="541" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B541"/>
       <c r="C541"/>
     </row>
     <row r="542" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C542"/>
+      <c r="B542"/>
+      <c r="D542" s="4"/>
     </row>
     <row r="543" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B543"/>
+      <c r="C543"/>
       <c r="D543" s="4"/>
     </row>
     <row r="544" spans="2:4" x14ac:dyDescent="0.2">
@@ -3167,30 +2795,29 @@
     </row>
     <row r="545" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C545"/>
-      <c r="D545" s="4"/>
     </row>
     <row r="546" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B546"/>
       <c r="C546"/>
     </row>
     <row r="547" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B547"/>
-      <c r="C547"/>
+      <c r="D547"/>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D548"/>
+      <c r="C548"/>
     </row>
     <row r="549" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B549"/>
       <c r="C549"/>
     </row>
     <row r="550" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B550"/>
       <c r="C550"/>
     </row>
     <row r="551" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B551"/>
       <c r="C551"/>
     </row>
     <row r="552" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B552"/>
       <c r="C552"/>
     </row>
     <row r="553" spans="2:4" x14ac:dyDescent="0.2">
@@ -3200,79 +2827,80 @@
       <c r="C554"/>
     </row>
     <row r="555" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B555"/>
       <c r="C555"/>
     </row>
     <row r="556" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B556"/>
       <c r="C556"/>
     </row>
     <row r="557" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C557"/>
+      <c r="D557" s="3"/>
     </row>
     <row r="558" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B558"/>
       <c r="C558"/>
       <c r="D558" s="3"/>
     </row>
     <row r="559" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B559"/>
       <c r="C559"/>
-      <c r="D559" s="3"/>
     </row>
     <row r="560" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C560"/>
+      <c r="D560"/>
     </row>
     <row r="561" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B561"/>
       <c r="C561"/>
       <c r="D561"/>
     </row>
     <row r="562" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B562"/>
       <c r="C562"/>
       <c r="D562"/>
     </row>
     <row r="563" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B563"/>
       <c r="C563"/>
-      <c r="D563"/>
     </row>
     <row r="564" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B564"/>
       <c r="C564"/>
+      <c r="D564" s="3"/>
     </row>
     <row r="565" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B565"/>
       <c r="C565"/>
       <c r="D565" s="3"/>
     </row>
     <row r="566" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B566"/>
       <c r="C566"/>
-      <c r="D566" s="3"/>
     </row>
     <row r="567" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B567"/>
       <c r="C567"/>
     </row>
     <row r="568" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B568"/>
       <c r="C568"/>
     </row>
     <row r="569" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B569"/>
       <c r="C569"/>
     </row>
     <row r="570" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B570"/>
       <c r="C570"/>
     </row>
     <row r="571" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B571"/>
       <c r="C571"/>
     </row>
     <row r="572" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B572"/>
       <c r="C572"/>
     </row>
     <row r="573" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C573"/>
+      <c r="B573"/>
+      <c r="D573" s="4"/>
     </row>
     <row r="574" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B574"/>
+      <c r="C574"/>
       <c r="D574" s="4"/>
     </row>
     <row r="575" spans="2:4" x14ac:dyDescent="0.2">
@@ -3281,27 +2909,26 @@
     </row>
     <row r="576" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C576"/>
-      <c r="D576" s="4"/>
     </row>
     <row r="577" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B577"/>
       <c r="C577"/>
     </row>
-    <row r="578" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B578"/>
-      <c r="C578"/>
+    <row r="579" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C579"/>
     </row>
     <row r="580" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B580"/>
       <c r="C580"/>
     </row>
     <row r="581" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B581"/>
       <c r="C581"/>
     </row>
     <row r="582" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B582"/>
       <c r="C582"/>
     </row>
     <row r="583" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B583"/>
       <c r="C583"/>
     </row>
     <row r="584" spans="2:4" x14ac:dyDescent="0.2">
@@ -3311,79 +2938,80 @@
       <c r="C585"/>
     </row>
     <row r="586" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B586"/>
       <c r="C586"/>
     </row>
     <row r="587" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B587"/>
       <c r="C587"/>
     </row>
     <row r="588" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C588"/>
+      <c r="D588" s="3"/>
     </row>
     <row r="589" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B589"/>
       <c r="C589"/>
       <c r="D589" s="3"/>
     </row>
     <row r="590" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B590"/>
       <c r="C590"/>
-      <c r="D590" s="3"/>
     </row>
     <row r="591" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C591"/>
+      <c r="D591"/>
     </row>
     <row r="592" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B592"/>
       <c r="C592"/>
       <c r="D592"/>
     </row>
     <row r="593" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B593"/>
       <c r="C593"/>
       <c r="D593"/>
     </row>
     <row r="594" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B594"/>
       <c r="C594"/>
-      <c r="D594"/>
     </row>
     <row r="595" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B595"/>
       <c r="C595"/>
+      <c r="D595" s="3"/>
     </row>
     <row r="596" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B596"/>
       <c r="C596"/>
       <c r="D596" s="3"/>
     </row>
     <row r="597" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B597"/>
       <c r="C597"/>
-      <c r="D597" s="3"/>
     </row>
     <row r="598" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B598"/>
       <c r="C598"/>
     </row>
     <row r="599" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B599"/>
       <c r="C599"/>
     </row>
     <row r="600" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B600"/>
       <c r="C600"/>
     </row>
     <row r="601" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B601"/>
       <c r="C601"/>
     </row>
     <row r="602" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B602"/>
       <c r="C602"/>
     </row>
     <row r="603" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B603"/>
       <c r="C603"/>
     </row>
     <row r="604" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C604"/>
+      <c r="B604"/>
+      <c r="D604" s="4"/>
     </row>
     <row r="605" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B605"/>
+      <c r="C605"/>
       <c r="D605" s="4"/>
     </row>
     <row r="606" spans="2:4" x14ac:dyDescent="0.2">
@@ -3392,27 +3020,26 @@
     </row>
     <row r="607" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C607"/>
-      <c r="D607" s="4"/>
     </row>
     <row r="608" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B608"/>
       <c r="C608"/>
     </row>
-    <row r="609" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B609"/>
-      <c r="C609"/>
+    <row r="610" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C610"/>
     </row>
     <row r="611" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B611"/>
       <c r="C611"/>
     </row>
     <row r="612" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B612"/>
       <c r="C612"/>
     </row>
     <row r="613" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B613"/>
       <c r="C613"/>
     </row>
     <row r="614" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B614"/>
       <c r="C614"/>
     </row>
     <row r="615" spans="2:4" x14ac:dyDescent="0.2">
@@ -3422,76 +3049,77 @@
       <c r="C616"/>
     </row>
     <row r="617" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B617"/>
       <c r="C617"/>
     </row>
     <row r="618" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B618"/>
       <c r="C618"/>
     </row>
     <row r="619" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C619"/>
+      <c r="D619" s="3"/>
     </row>
     <row r="620" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B620"/>
       <c r="C620"/>
       <c r="D620" s="3"/>
     </row>
     <row r="621" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B621"/>
       <c r="C621"/>
-      <c r="D621" s="3"/>
     </row>
     <row r="622" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C622"/>
     </row>
     <row r="623" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B623"/>
       <c r="C623"/>
     </row>
     <row r="624" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B624"/>
       <c r="C624"/>
     </row>
     <row r="625" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B625"/>
       <c r="C625"/>
     </row>
     <row r="626" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B626"/>
       <c r="C626"/>
+      <c r="D626" s="3"/>
     </row>
     <row r="627" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B627"/>
       <c r="C627"/>
       <c r="D627" s="3"/>
     </row>
     <row r="628" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B628"/>
       <c r="C628"/>
-      <c r="D628" s="3"/>
     </row>
     <row r="629" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B629"/>
       <c r="C629"/>
     </row>
     <row r="630" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B630"/>
       <c r="C630"/>
     </row>
     <row r="631" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B631"/>
       <c r="C631"/>
     </row>
     <row r="632" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B632"/>
       <c r="C632"/>
     </row>
     <row r="633" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B633"/>
       <c r="C633"/>
     </row>
     <row r="634" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B634"/>
       <c r="C634"/>
     </row>
     <row r="635" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C635"/>
+      <c r="B635"/>
+      <c r="D635" s="4"/>
     </row>
     <row r="636" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B636"/>
+      <c r="C636"/>
       <c r="D636" s="4"/>
     </row>
     <row r="637" spans="2:4" x14ac:dyDescent="0.2">
@@ -3500,30 +3128,29 @@
     </row>
     <row r="638" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C638"/>
-      <c r="D638" s="4"/>
     </row>
     <row r="639" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B639"/>
       <c r="C639"/>
     </row>
     <row r="640" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B640"/>
-      <c r="C640"/>
+      <c r="D640"/>
     </row>
     <row r="641" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D641"/>
+      <c r="C641"/>
     </row>
     <row r="642" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B642"/>
       <c r="C642"/>
     </row>
     <row r="643" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B643"/>
       <c r="C643"/>
     </row>
     <row r="644" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B644"/>
       <c r="C644"/>
     </row>
     <row r="645" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B645"/>
       <c r="C645"/>
     </row>
     <row r="646" spans="2:4" x14ac:dyDescent="0.2">
@@ -3533,77 +3160,77 @@
       <c r="C647"/>
     </row>
     <row r="648" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B648"/>
       <c r="C648"/>
     </row>
     <row r="649" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B649"/>
       <c r="C649"/>
     </row>
     <row r="650" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C650"/>
+      <c r="D650" s="3"/>
     </row>
     <row r="651" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B651"/>
       <c r="C651"/>
       <c r="D651" s="3"/>
     </row>
     <row r="652" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B652"/>
       <c r="C652"/>
-      <c r="D652" s="3"/>
     </row>
     <row r="653" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C653"/>
     </row>
     <row r="654" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B654"/>
       <c r="C654"/>
     </row>
     <row r="655" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B655"/>
       <c r="C655"/>
     </row>
     <row r="656" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B656"/>
       <c r="C656"/>
     </row>
     <row r="657" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B657"/>
       <c r="C657"/>
+      <c r="D657" s="3"/>
     </row>
     <row r="658" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B658"/>
       <c r="C658"/>
       <c r="D658" s="3"/>
     </row>
     <row r="659" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B659"/>
       <c r="C659"/>
-      <c r="D659" s="3"/>
     </row>
     <row r="660" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B660"/>
       <c r="C660"/>
     </row>
     <row r="661" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B661"/>
       <c r="C661"/>
     </row>
     <row r="662" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B662"/>
       <c r="C662"/>
     </row>
     <row r="663" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B663"/>
       <c r="C663"/>
     </row>
     <row r="664" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B664"/>
       <c r="C664"/>
     </row>
     <row r="665" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B665"/>
       <c r="C665"/>
     </row>
     <row r="666" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C666"/>
+      <c r="D666" s="4"/>
     </row>
     <row r="667" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C667"/>
-      <c r="D667" s="4"/>
     </row>
     <row r="668" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C668"/>
@@ -3612,17 +3239,17 @@
       <c r="C669"/>
     </row>
     <row r="670" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B670"/>
       <c r="C670"/>
     </row>
     <row r="671" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B671"/>
       <c r="C671"/>
     </row>
     <row r="672" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B672"/>
       <c r="C672"/>
     </row>
     <row r="673" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B673"/>
       <c r="C673"/>
     </row>
     <row r="674" spans="2:4" x14ac:dyDescent="0.2">
@@ -3632,102 +3259,90 @@
       <c r="C675"/>
     </row>
     <row r="676" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B676"/>
       <c r="C676"/>
     </row>
     <row r="677" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B677"/>
       <c r="C677"/>
     </row>
     <row r="678" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C678"/>
+      <c r="D678" s="3"/>
     </row>
     <row r="679" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B679"/>
       <c r="C679"/>
       <c r="D679" s="3"/>
     </row>
     <row r="680" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B680"/>
       <c r="C680"/>
-      <c r="D680" s="3"/>
     </row>
     <row r="681" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C681"/>
     </row>
     <row r="682" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B682"/>
       <c r="C682"/>
     </row>
     <row r="683" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B683"/>
       <c r="C683"/>
     </row>
     <row r="684" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B684"/>
       <c r="C684"/>
     </row>
     <row r="685" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B685"/>
       <c r="C685"/>
+      <c r="D685" s="3"/>
     </row>
     <row r="686" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B686"/>
       <c r="C686"/>
       <c r="D686" s="3"/>
     </row>
     <row r="687" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B687"/>
       <c r="C687"/>
-      <c r="D687" s="3"/>
     </row>
     <row r="688" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B688"/>
       <c r="C688"/>
     </row>
     <row r="689" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B689"/>
       <c r="C689"/>
     </row>
     <row r="690" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B690"/>
       <c r="C690"/>
     </row>
     <row r="691" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B691"/>
       <c r="C691"/>
     </row>
     <row r="692" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B692"/>
       <c r="C692"/>
     </row>
     <row r="693" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B693"/>
       <c r="C693"/>
     </row>
     <row r="694" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C694"/>
+      <c r="D694" s="4"/>
     </row>
     <row r="695" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B695"/>
       <c r="C695"/>
       <c r="D695" s="4"/>
     </row>
     <row r="696" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B696"/>
       <c r="C696"/>
       <c r="D696" s="4"/>
     </row>
     <row r="697" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C697"/>
-      <c r="D697" s="4"/>
-    </row>
-    <row r="698" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C698"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D30" r:id="rId1" xr:uid="{03C1995D-1944-0040-9E84-28E0CDB41B12}"/>
-    <hyperlink ref="D31" r:id="rId2" xr:uid="{847AB647-C0B6-2944-99B9-3F18C34D1B89}"/>
-    <hyperlink ref="D26" r:id="rId3" xr:uid="{207F2442-7C9A-0441-8BA1-BF47FFB5E07B}"/>
-    <hyperlink ref="D61" r:id="rId4" xr:uid="{067AD827-A569-FB4C-BDA2-E9AB6D1F1113}"/>
-    <hyperlink ref="D62" r:id="rId5" xr:uid="{C536622B-07EA-0847-9749-F35AA851A337}"/>
-    <hyperlink ref="D59" r:id="rId6" xr:uid="{959DFCC9-008B-1745-9771-A42D010E371A}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{5CD97344-62BC-554C-8B5E-69151F4A7EA3}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
